--- a/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>Salmonella sp antigenic formula [Identifier] in Isolate by Agglutination</t>
+  </si>
+  <si>
+    <t>62469-2</t>
+  </si>
+  <si>
+    <t>HIV 1 RNA [Units/volume] (viral load) in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-pq-virl</t>
   </si>
 </sst>
 </file>
@@ -415,7 +424,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -485,6 +494,21 @@
       </c>
       <c r="E4" s="2"/>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -148,6 +148,21 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-pq-virl</t>
+  </si>
+  <si>
+    <t>9709-7</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii phase 2 IgG Ab [Titer] in Serum</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-rto</t>
+  </si>
+  <si>
+    <t>9711-3</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii phase 2 IgM Ab [Titer] in Serum</t>
   </si>
 </sst>
 </file>
@@ -424,7 +439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -509,6 +524,36 @@
       </c>
       <c r="E5" s="2"/>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,22 +123,16 @@
     <t>http://fhir.ch/ig/ch-elm/CodeSystem/ch-elm-observation-profile-vs</t>
   </si>
   <si>
-    <t>101003-2</t>
-  </si>
-  <si>
-    <t>Monkeypox virus clade [Type] in Specimen by Sequencing</t>
+    <t>56475-7</t>
+  </si>
+  <si>
+    <t>Salmonella sp antigenic formula [Identifier] in Isolate by Agglutination</t>
   </si>
   <si>
     <t>related-to</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-txt</t>
-  </si>
-  <si>
-    <t>56475-7</t>
-  </si>
-  <si>
-    <t>Salmonella sp antigenic formula [Identifier] in Isolate by Agglutination</t>
   </si>
   <si>
     <t>62469-2</t>
@@ -439,7 +433,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -505,54 +499,39 @@
         <v>38</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-pq-virl</t>
+  </si>
+  <si>
+    <t>77685-6</t>
+  </si>
+  <si>
+    <t>HIV 1 and 2 IgG Ab [Identifier] in Serum or Plasma by Immunoblot</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-observation-hiv-rec</t>
   </si>
   <si>
     <t>9709-7</t>
@@ -433,7 +442,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -529,9 +538,24 @@
         <v>38</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-observation-profile.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
